--- a/Spacecraft/adcsdata.xlsx
+++ b/Spacecraft/adcsdata.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Other\python\projects\AE2111\Spacecraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUDelftSID\Documents\GitHub\ADSEE-2-Group-Assignment-for-Spacecraft-and-Aircraft\Spacecraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D292908-D934-4EB6-9798-EE0DDF05FD65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34AE0AEB-ED49-4881-8F02-A7BF342D7577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10776" yWindow="1884" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Parameter</t>
   </si>
@@ -111,6 +112,9 @@
       </rPr>
       <t>disturbance</t>
     </r>
+  </si>
+  <si>
+    <t>50: 2 star sensors DS2</t>
   </si>
 </sst>
 </file>
@@ -491,16 +495,16 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="3" max="8" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="3" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -549,7 +553,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -577,7 +581,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -600,7 +604,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -623,7 +627,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -646,7 +650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -662,28 +666,28 @@
       <c r="E7" s="1">
         <v>1800</v>
       </c>
-      <c r="F7" s="1">
-        <v>50</v>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G7" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
